--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self\NameSorter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\NameSorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0678E76-1496-41A1-B9E4-9B3EB3EE8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586633F9-BCAC-4A48-9CED-3D4F201D7777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="750" windowWidth="19305" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
